--- a/ObjectHierarchy.xlsx
+++ b/ObjectHierarchy.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,15 +25,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>Hardware</t>
   </si>
   <si>
     <t>Chassis</t>
-  </si>
-  <si>
-    <t>Members</t>
   </si>
   <si>
     <t>Type</t>
@@ -404,155 +402,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D4" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D5" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D7" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D23" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E24" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E25" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>18</v>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
